--- a/summary-vigor-syrup-post-harvest.xlsx
+++ b/summary-vigor-syrup-post-harvest.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="summary-vigor-syrup-post-harves" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>FTG2019</t>
   </si>
@@ -54,9 +54,6 @@
     <t>dbh_med</t>
   </si>
   <si>
-    <t>rbai</t>
-  </si>
-  <si>
     <t>strata.post</t>
   </si>
   <si>
@@ -65,13 +62,19 @@
   <si>
     <t>upper</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dbh_mean</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -555,15 +558,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,576 +886,688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="13" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="3">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.16583702469190201</v>
+      </c>
+      <c r="E2" s="1">
+        <v>12.275</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12.285</v>
+      </c>
+      <c r="G2" s="1">
+        <v>125.06692623839901</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.29697030000000502</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>165.44</v>
+      </c>
+      <c r="K2" s="1">
+        <v>34.964999999999897</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.115</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.54249999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D3" s="1">
+        <v>0.87441401288028997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11.65</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11.353</v>
+      </c>
+      <c r="G3" s="1">
+        <v>102.06967186656</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.78652264896000101</v>
+      </c>
+      <c r="I3" s="1">
+        <v>58.4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>212.39099999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>34.838999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.46838151803652001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>90.760013999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.42115788000000898</v>
+      </c>
+      <c r="I4" s="1">
+        <v>135</v>
+      </c>
+      <c r="J4" s="1">
+        <v>204.65</v>
+      </c>
+      <c r="K4" s="1">
+        <v>28.195</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.1839997644259999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>12.7566666666666</v>
+      </c>
+      <c r="G5" s="1">
+        <v>132.4795274496</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.4630176736</v>
+      </c>
+      <c r="I5" s="1">
+        <v>285</v>
+      </c>
+      <c r="J5" s="1">
+        <v>271.10000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>26.446666666666601</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.57970530254935604</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>237.78043775999899</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.3626273599999701</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>509.29</v>
+      </c>
+      <c r="K6" s="1">
+        <v>37.484999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.64999999999999902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.95971565805188896</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15.24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>189.80060495039999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.67623672319999</v>
+      </c>
+      <c r="I7" s="1">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1">
+        <v>463.208888888888</v>
+      </c>
+      <c r="K7" s="1">
+        <v>41.1794444444444</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1.6083333333333301</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.87388888888888805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.3073012890612501</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16.725000000000001</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16.131428571428501</v>
+      </c>
+      <c r="G8" s="1">
+        <v>207.59338923428501</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.4631859684571298</v>
+      </c>
+      <c r="I8" s="1">
+        <v>150.71428571428501</v>
+      </c>
+      <c r="J8" s="1">
+        <v>533.44000000000005</v>
+      </c>
+      <c r="K8" s="1">
+        <v>39.0042857142857</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.5378571428571399</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.80928571428571405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C9" s="3">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.8239026973067001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="F9" s="1">
+        <v>14.495625</v>
+      </c>
+      <c r="G9" s="1">
+        <v>166.61502973979901</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.8242808163999902</v>
+      </c>
+      <c r="I9" s="1">
+        <v>221.875</v>
+      </c>
+      <c r="J9" s="1">
+        <v>523.63750000000005</v>
+      </c>
+      <c r="K9" s="1">
+        <v>38.627499999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.5862499999999999</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.81312499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="C10" s="3">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2901674022717202</v>
+      </c>
+      <c r="E10" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15.517142857142799</v>
+      </c>
+      <c r="G10" s="1">
+        <v>194.58212114057099</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3.3651398160000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>315</v>
+      </c>
+      <c r="J10" s="1">
+        <v>546.79857142857099</v>
+      </c>
+      <c r="K10" s="1">
+        <v>46.13</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1.5464285714285699</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.90714285714285703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.16583702469190201</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12.275</v>
-      </c>
-      <c r="E2" s="1">
-        <v>125.06692623839901</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.29697030000000502</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.30379311731105302</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15.17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>13.99</v>
+      </c>
+      <c r="F17" s="2">
+        <v>162.638096745599</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.65218931999999497</v>
+      </c>
+      <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
-        <v>165.44</v>
-      </c>
-      <c r="I2" s="1">
-        <v>34.964999999999897</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.115</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.54249999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="I17" s="2">
+        <v>280.05666666666599</v>
+      </c>
+      <c r="J17" s="2">
+        <v>35.805</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.165</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.57833333333333303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.87441401288028997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11.65</v>
-      </c>
-      <c r="E3" s="1">
-        <v>102.06967186656</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.78652264896000101</v>
-      </c>
-      <c r="G3" s="1">
-        <v>58.4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>212.39099999999999</v>
-      </c>
-      <c r="I3" s="1">
-        <v>34.838999999999999</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.2829999999999999</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B18" s="3">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.92925078477631795</v>
+      </c>
+      <c r="D18" s="2">
+        <v>13.0049999999999</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13.8517857142857</v>
+      </c>
+      <c r="F18" s="2">
+        <v>158.46812884902801</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.3584816966857101</v>
+      </c>
+      <c r="H18" s="2">
+        <v>65.857142857142804</v>
+      </c>
+      <c r="I18" s="2">
+        <v>373.63107142857098</v>
+      </c>
+      <c r="J18" s="2">
+        <v>38.914999999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.4921428571428501</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.76678571428571396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.46838151803652001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10.75</v>
-      </c>
-      <c r="E4" s="1">
-        <v>90.760013999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.42115788000000898</v>
-      </c>
-      <c r="G4" s="1">
-        <v>135</v>
-      </c>
-      <c r="H4" s="1">
-        <v>204.65</v>
-      </c>
-      <c r="I4" s="1">
-        <v>28.195</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.62</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.2024363176831601</v>
+      </c>
+      <c r="D19" s="2">
+        <v>16.114999999999998</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15.45875</v>
+      </c>
+      <c r="F19" s="2">
+        <v>192.98921732999901</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.2079324573999899</v>
+      </c>
+      <c r="H19" s="2">
+        <v>148.75</v>
+      </c>
+      <c r="I19" s="2">
+        <v>492.34125</v>
+      </c>
+      <c r="J19" s="2">
+        <v>37.653125000000003</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.548125</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.77937500000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.8239026973067001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="E20" s="2">
+        <v>14.495625</v>
+      </c>
+      <c r="F20" s="2">
+        <v>166.61502973979901</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.8242808163999902</v>
+      </c>
+      <c r="H20" s="2">
+        <v>221.875</v>
+      </c>
+      <c r="I20" s="2">
+        <v>523.63750000000005</v>
+      </c>
+      <c r="J20" s="2">
+        <v>38.627499999999998</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.5862499999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.81312499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2.1839997644259999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>132.4795274496</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.4630176736</v>
-      </c>
-      <c r="G5" s="1">
-        <v>285</v>
-      </c>
-      <c r="H5" s="1">
-        <v>271.10000000000002</v>
-      </c>
-      <c r="I5" s="1">
-        <v>26.446666666666601</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.57970530254935604</v>
-      </c>
-      <c r="D6" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>237.78043775999899</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.3626273599999701</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>509.29</v>
-      </c>
-      <c r="I6" s="1">
-        <v>37.484999999999999</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.64999999999999902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.95971565805188896</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>189.80060495039999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.67623672319999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>70</v>
-      </c>
-      <c r="H7" s="1">
-        <v>463.208888888888</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41.1794444444444</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.6083333333333301</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.87388888888888805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.3073012890612501</v>
-      </c>
-      <c r="D8" s="1">
-        <v>16.725000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>207.59338923428501</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.4631859684571298</v>
-      </c>
-      <c r="G8" s="1">
-        <v>150.71428571428501</v>
-      </c>
-      <c r="H8" s="1">
-        <v>533.44000000000005</v>
-      </c>
-      <c r="I8" s="1">
-        <v>39.0042857142857</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.5378571428571399</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.80928571428571405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.8239026973067001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>14.25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>166.61502973979901</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.8242808163999902</v>
-      </c>
-      <c r="G9" s="1">
-        <v>221.875</v>
-      </c>
-      <c r="H9" s="1">
-        <v>523.63750000000005</v>
-      </c>
-      <c r="I9" s="1">
-        <v>38.627499999999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.5862499999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.81312499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.2901674022717202</v>
-      </c>
-      <c r="D10" s="1">
-        <v>14.82</v>
-      </c>
-      <c r="E10" s="1">
-        <v>194.58212114057099</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3.3651398160000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>315</v>
-      </c>
-      <c r="H10" s="1">
-        <v>546.79857142857099</v>
-      </c>
-      <c r="I10" s="1">
-        <v>46.13</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.5464285714285699</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.90714285714285703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.30379311731105302</v>
-      </c>
-      <c r="C19" s="1">
-        <v>15.17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>162.638096745599</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.65218931999999497</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.30379311731105302</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>280.05666666666599</v>
-      </c>
-      <c r="I19" s="1">
-        <v>35.805</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1.165</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.57833333333333303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.92925078477631795</v>
-      </c>
-      <c r="C20" s="1">
-        <v>13.0049999999999</v>
-      </c>
-      <c r="D20" s="1">
-        <v>158.46812884902801</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1.3584816966857101</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.92925078477631795</v>
-      </c>
-      <c r="G20" s="3">
-        <v>65.857142857142804</v>
-      </c>
-      <c r="H20" s="3">
-        <v>373.63107142857098</v>
-      </c>
-      <c r="I20" s="1">
-        <v>38.914999999999999</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1.4921428571428501</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.76678571428571396</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.2024363176831601</v>
-      </c>
-      <c r="C21" s="1">
-        <v>16.114999999999998</v>
-      </c>
-      <c r="D21" s="1">
-        <v>192.98921732999901</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.2079324573999899</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.2024363176831601</v>
-      </c>
-      <c r="G21" s="3">
-        <v>148.75</v>
-      </c>
-      <c r="H21" s="3">
-        <v>492.34125</v>
-      </c>
-      <c r="I21" s="1">
-        <v>37.653125000000003</v>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.2583171109180098</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14.7549999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14.689</v>
+      </c>
+      <c r="F21" s="2">
+        <v>175.95134303328001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3.0945031732800001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>306</v>
+      </c>
+      <c r="I21" s="2">
+        <v>464.089</v>
       </c>
       <c r="J21" s="2">
-        <v>1.548125</v>
+        <v>40.225000000000001</v>
       </c>
       <c r="K21" s="2">
-        <v>0.77937500000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.8239026973067001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>14.25</v>
-      </c>
-      <c r="D22" s="1">
-        <v>166.61502973979901</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.8242808163999902</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1.8239026973067001</v>
-      </c>
-      <c r="G22" s="3">
-        <v>221.875</v>
-      </c>
-      <c r="H22" s="3">
-        <v>523.63750000000005</v>
-      </c>
-      <c r="I22" s="1">
-        <v>38.627499999999998</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1.5862499999999999</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0.81312499999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.2583171109180098</v>
-      </c>
-      <c r="C23" s="1">
-        <v>14.7549999999999</v>
-      </c>
-      <c r="D23" s="1">
-        <v>175.95134303328001</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3.0945031732800001</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.2583171109180098</v>
-      </c>
-      <c r="G23" s="3">
-        <v>306</v>
-      </c>
-      <c r="H23" s="3">
-        <v>464.089</v>
-      </c>
-      <c r="I23" s="1">
-        <v>40.225000000000001</v>
-      </c>
-      <c r="J23" s="2">
         <v>1.4815</v>
       </c>
-      <c r="K23" s="2">
+      <c r="L21" s="2">
         <v>0.77900000000000003</v>
       </c>
     </row>

--- a/summary-vigor-syrup-post-harvest.xlsx
+++ b/summary-vigor-syrup-post-harvest.xlsx
@@ -73,8 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -553,7 +554,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -565,6 +566,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,7 +893,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L17" sqref="L17:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +979,7 @@
       <c r="L2" s="1">
         <v>1.115</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="5">
         <v>0.54249999999999998</v>
       </c>
     </row>
@@ -1016,7 +1020,7 @@
       <c r="L3" s="1">
         <v>1.2829999999999999</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="5">
         <v>0.57399999999999995</v>
       </c>
     </row>
@@ -1057,7 +1061,7 @@
       <c r="L4" s="1">
         <v>1.62</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="5">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1098,7 +1102,7 @@
       <c r="L5" s="1">
         <v>1.33</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="5">
         <v>0.48</v>
       </c>
     </row>
@@ -1139,7 +1143,7 @@
       <c r="L6" s="1">
         <v>1.2649999999999999</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="5">
         <v>0.64999999999999902</v>
       </c>
     </row>
@@ -1180,7 +1184,7 @@
       <c r="L7" s="1">
         <v>1.6083333333333301</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="5">
         <v>0.87388888888888805</v>
       </c>
     </row>
@@ -1221,7 +1225,7 @@
       <c r="L8" s="1">
         <v>1.5378571428571399</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="5">
         <v>0.80928571428571405</v>
       </c>
     </row>
@@ -1262,7 +1266,7 @@
       <c r="L9" s="1">
         <v>1.5862499999999999</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="5">
         <v>0.81312499999999999</v>
       </c>
     </row>
@@ -1303,7 +1307,7 @@
       <c r="L10" s="1">
         <v>1.5464285714285699</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="5">
         <v>0.90714285714285703</v>
       </c>
     </row>
@@ -1415,7 +1419,7 @@
       <c r="K17" s="2">
         <v>1.165</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0.57833333333333303</v>
       </c>
     </row>
@@ -1453,7 +1457,7 @@
       <c r="K18" s="2">
         <v>1.4921428571428501</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>0.76678571428571396</v>
       </c>
     </row>
@@ -1491,7 +1495,7 @@
       <c r="K19" s="2">
         <v>1.548125</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>0.77937500000000004</v>
       </c>
     </row>
@@ -1529,7 +1533,7 @@
       <c r="K20" s="2">
         <v>1.5862499999999999</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>0.81312499999999999</v>
       </c>
     </row>
@@ -1567,7 +1571,7 @@
       <c r="K21" s="2">
         <v>1.4815</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>0.77900000000000003</v>
       </c>
     </row>
